--- a/www/terminologies/ValueSet-jdv-rcp-organe-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-rcp-organe-cisis.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103858</t>
+    <t>20250624152101</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:58+01:00</t>
+    <t>2025-06-24T15:21:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-rcp-organe-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-rcp-organe-cisis.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152101</t>
+    <t>20251216141840</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:01+01:00</t>
+    <t>2025-12-16T14:18:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-cim-10</t>
+    <t>http://hl7.org/fhir/sid/icd-10</t>
   </si>
   <si>
     <t>C3211</t>
@@ -192,7 +192,7 @@
     <t>C94529</t>
   </si>
   <si>
-    <t>Vulve et vagin</t>
+    <t>région vulvo-vaginale</t>
   </si>
   <si>
     <t>C12664</t>
@@ -201,7 +201,7 @@
     <t>Péritoine-rétropéritoine</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-ncit</t>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl</t>
   </si>
   <si>
     <t>MED-237</t>
@@ -228,13 +228,13 @@
     <t>57171008</t>
   </si>
   <si>
-    <t>structure du système hématopoïétique</t>
+    <t>système hématopoïétique</t>
   </si>
   <si>
     <t>119253004</t>
   </si>
   <si>
-    <t>voie aérodigestive supérieure</t>
+    <t>voies aérodigestives supérieures</t>
   </si>
   <si>
     <t>303270005</t>
@@ -300,7 +300,7 @@
     <t>48477009</t>
   </si>
   <si>
-    <t>lèvre de la bouche</t>
+    <t>lèvre</t>
   </si>
   <si>
     <t>21974007</t>
@@ -429,10 +429,10 @@
     <t>nerf périphérique</t>
   </si>
   <si>
-    <t>1290040004</t>
-  </si>
-  <si>
-    <t>œil entier</t>
+    <t>81745001</t>
+  </si>
+  <si>
+    <t>œil</t>
   </si>
   <si>
     <t>387910009</t>
@@ -444,13 +444,13 @@
     <t>23451007</t>
   </si>
   <si>
-    <t>glande surrénale</t>
+    <t>glande suprarénale</t>
   </si>
   <si>
     <t>69748006</t>
   </si>
   <si>
-    <t>glande thyroïde</t>
+    <t>thyroïde</t>
   </si>
   <si>
     <t>72410000</t>
